--- a/corpus/summer_school_corpus_info.xlsx
+++ b/corpus/summer_school_corpus_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\zurich-sommerschule22.github.io\corpus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giuliagrisot/Documents/GitHub/zurich-sommerschule22.github.io/corpus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9AAE40-EA0A-4072-B673-7714BC4EED2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F96188-7C93-F749-9320-249849111283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2386,19 +2386,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="E117" sqref="E117"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>275</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>279</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>282</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>287</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>289</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>290</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>295</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>296</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>297</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>302</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>305</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>309</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>312</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>316</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>318</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>321</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>322</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>323</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>324</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>325</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>327</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>328</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>329</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>330</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>331</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>333</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>334</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>335</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>337</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>342</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>344</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>345</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>348</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>350</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>351</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>354</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>356</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>357</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>359</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>362</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>363</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>364</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>365</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>366</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>367</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>368</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>371</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>374</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>378</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>379</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>380</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>381</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>382</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>383</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>387</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>388</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>389</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>390</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>391</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>393</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>395</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>399</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>401</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>405</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>406</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>407</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>409</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>410</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>413</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>414</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>416</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>418</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>419</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>420</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>421</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>422</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>426</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>428</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>429</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>430</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>433</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>435</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>438</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>442</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>444</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>447</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>448</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>450</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>451</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>454</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>456</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>457</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>458</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>459</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>460</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>461</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>462</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>463</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>464</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>467</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>468</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>469</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>472</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>475</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>477</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>478</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>479</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>482</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>485</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>486</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>487</v>
       </c>
@@ -4951,7 +4951,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>490</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>491</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>493</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>494</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>496</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>497</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>500</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>501</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>504</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>505</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>506</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>508</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>510</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>513</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>515</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>518</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>521</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>522</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>525</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>527</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>529</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>532</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>533</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>534</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>536</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>537</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>538</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>540</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>543</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>544</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>545</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>546</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>547</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>548</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>549</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>550</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>551</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>553</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>554</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>555</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>558</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>559</v>
       </c>
@@ -5917,7 +5917,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>560</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>562</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>563</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>566</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>568</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>570</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>573</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>575</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>576</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>579</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>580</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>583</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>586</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>588</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>591</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>594</v>
       </c>
@@ -6285,7 +6285,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>595</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>596</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>598</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>599</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>600</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>602</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>605</v>
       </c>
@@ -6446,7 +6446,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>608</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>610</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>613</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>615</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>616</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>617</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>618</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>619</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>620</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>623</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>624</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>625</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>628</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>630</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>631</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>633</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>635</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>636</v>
       </c>
@@ -6860,7 +6860,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>639</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>641</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>642</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>643</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>646</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>647</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>648</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>649</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>650</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>652</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>654</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>654</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>656</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>658</v>
       </c>
@@ -7182,7 +7182,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>661</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>664</v>
       </c>

--- a/corpus/summer_school_corpus_info.xlsx
+++ b/corpus/summer_school_corpus_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giuliagrisot/Documents/GitHub/zurich-sommerschule22.github.io/corpus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F96188-7C93-F749-9320-249849111283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBC5123-2B56-2F49-B2E9-C3AACB2AF049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2017,13 +2017,13 @@
     <t>willkomm_weisse_1845.txt</t>
   </si>
   <si>
-    <t>Ernst Adolf</t>
-  </si>
-  <si>
     <t>Willkomm</t>
   </si>
   <si>
     <t>Bettina</t>
+  </si>
+  <si>
+    <t>Ernst</t>
   </si>
 </sst>
 </file>
@@ -2386,8 +2386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="E211" sqref="E211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5034,7 +5034,7 @@
         <v>1840</v>
       </c>
       <c r="E115" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F115" t="s">
         <v>495</v>
@@ -5057,7 +5057,7 @@
         <v>1844</v>
       </c>
       <c r="E116" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F116" t="s">
         <v>495</v>
@@ -7219,10 +7219,10 @@
         <v>1845</v>
       </c>
       <c r="E210" t="s">
+        <v>667</v>
+      </c>
+      <c r="F210" t="s">
         <v>665</v>
-      </c>
-      <c r="F210" t="s">
-        <v>666</v>
       </c>
       <c r="G210" t="s">
         <v>274</v>
